--- a/src/main/resources/SZ300181.xlsx
+++ b/src/main/resources/SZ300181.xlsx
@@ -68,577 +68,577 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>782.0</v>
+        <v>780.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20151021</t>
+          <t>20151125</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>882.0</v>
+        <v>1254.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20151116</t>
+          <t>20151211</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1026.0</v>
+        <v>1055.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20151125</t>
+          <t>20151223</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1256.0</v>
+        <v>1283.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20151211</t>
+          <t>20160129</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1057.0</v>
+        <v>783.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20151223</t>
+          <t>20160222</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1285.0</v>
+        <v>965.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20160129</t>
+          <t>20160229</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>785.0</v>
+        <v>745.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20160222</t>
+          <t>20160321</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>967.0</v>
+        <v>907.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20160229</t>
+          <t>20160329</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>747.0</v>
+        <v>837.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20160321</t>
+          <t>20160412</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>909.0</v>
+        <v>1029.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20160329</t>
+          <t>20160425</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>839.0</v>
+        <v>860.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20160412</t>
+          <t>20160503</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1031.0</v>
+        <v>953.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20160425</t>
+          <t>20160520</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>862.0</v>
+        <v>787.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20160503</t>
+          <t>20160727</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>955.0</v>
+        <v>985.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20160520</t>
+          <t>20160801</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>789.0</v>
+        <v>862.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20160727</t>
+          <t>20161012</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>987.0</v>
+        <v>1054.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20160801</t>
+          <t>20161021</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>864.0</v>
+        <v>971.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20161012</t>
+          <t>20161118</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1056.0</v>
+        <v>1151.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20161021</t>
+          <t>20170116</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>973.0</v>
+        <v>786.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20161118</t>
+          <t>20170208</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1153.0</v>
+        <v>910.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20170116</t>
+          <t>20170511</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>788.0</v>
+        <v>643.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20170208</t>
+          <t>20170710</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>912.0</v>
+        <v>711.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20170511</t>
+          <t>20170724</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>645.0</v>
+        <v>612.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20170710</t>
+          <t>20170907</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>713.0</v>
+        <v>787.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20170724</t>
+          <t>20170922</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>614.0</v>
+        <v>695.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20170907</t>
+          <t>20171011</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>789.0</v>
+        <v>756.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20170922</t>
+          <t>20171103</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>697.0</v>
+        <v>624.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20171011</t>
+          <t>20171117</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>758.0</v>
+        <v>678.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20171103</t>
+          <t>20171206</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>626.0</v>
+        <v>566.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20171117</t>
+          <t>20171226</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>680.0</v>
+        <v>837.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20171206</t>
+          <t>20180207</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>568.0</v>
+        <v>528.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20171226</t>
+          <t>20180314</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>839.0</v>
+        <v>746.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20180207</t>
+          <t>20180326</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>530.0</v>
+        <v>594.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20180314</t>
+          <t>20180402</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>748.0</v>
+        <v>791.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20180326</t>
+          <t>20180423</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>596.0</v>
+        <v>609.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20180402</t>
+          <t>20180524</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>793.0</v>
+        <v>723.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20180423</t>
+          <t>20180709</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>611.0</v>
+        <v>477.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20180524</t>
+          <t>20180725</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>725.0</v>
+        <v>535.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20180709</t>
+          <t>20180903</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>479.0</v>
+        <v>415.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20180725</t>
+          <t>20180926</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>537.0</v>
+        <v>467.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20180903</t>
+          <t>20181019</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>417.0</v>
+        <v>323.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20180926</t>
+          <t>20181204</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>469.0</v>
+        <v>676.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20181019</t>
+          <t>20190131</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>325.0</v>
+        <v>447.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20181204</t>
+          <t>20190325</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>678.0</v>
+        <v>847.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20190131</t>
+          <t>20190506</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>449.0</v>
+        <v>544.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20190325</t>
+          <t>20190528</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.0</v>
+        <v>657.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20190506</t>
+          <t>20190610</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>546.0</v>
+        <v>566.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20190528</t>
+          <t>20190621</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>659.0</v>
+        <v>635.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20190610</t>
+          <t>20190722</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>568.0</v>
+        <v>532.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20190621</t>
+          <t>20190731</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>637.0</v>
+        <v>566.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20190722</t>
+          <t>20190806</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>534.0</v>
+        <v>468.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20190731</t>
+          <t>20190910</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>568.0</v>
+        <v>583.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20190806</t>
+          <t>20200203</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>470.0</v>
+        <v>462.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20190910</t>
+          <t>20200327</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>585.0</v>
+        <v>666.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20200203</t>
+          <t>20200402</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>464.0</v>
+        <v>526.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20200327</t>
+          <t>20200416</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>668.0</v>
+        <v>625.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20200402</t>
+          <t>20200428</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>528.0</v>
+        <v>523.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20200416</t>
+          <t>20200603</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>627.0</v>
+        <v>598.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/SZ300181.xlsx
+++ b/src/main/resources/SZ300181.xlsx
@@ -194,450 +194,510 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20160727</t>
+          <t>20160601</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>985.0</v>
+        <v>920.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20160801</t>
+          <t>20160727</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>862.0</v>
+        <v>985.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20161012</t>
+          <t>20160801</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1054.0</v>
+        <v>862.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20161021</t>
+          <t>20161012</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>971.0</v>
+        <v>1054.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20161118</t>
+          <t>20161021</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1151.0</v>
+        <v>971.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20170116</t>
+          <t>20161118</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>786.0</v>
+        <v>1151.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20170208</t>
+          <t>20161213</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>910.0</v>
+        <v>888.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20170511</t>
+          <t>20170116</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>643.0</v>
+        <v>786.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20170710</t>
+          <t>20170208</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.0</v>
+        <v>910.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20170724</t>
+          <t>20170511</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>612.0</v>
+        <v>643.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20170907</t>
+          <t>20170710</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>787.0</v>
+        <v>711.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20170922</t>
+          <t>20170724</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.0</v>
+        <v>612.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20171011</t>
+          <t>20170907</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>756.0</v>
+        <v>787.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20171103</t>
+          <t>20170922</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>624.0</v>
+        <v>695.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20171117</t>
+          <t>20171011</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>678.0</v>
+        <v>756.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20171206</t>
+          <t>20171103</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>566.0</v>
+        <v>624.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20171226</t>
+          <t>20171117</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>837.0</v>
+        <v>678.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20180207</t>
+          <t>20171206</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>528.0</v>
+        <v>566.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20180314</t>
+          <t>20171226</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>746.0</v>
+        <v>837.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20180326</t>
+          <t>20180207</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>594.0</v>
+        <v>528.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20180402</t>
+          <t>20180314</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>791.0</v>
+        <v>746.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20180423</t>
+          <t>20180326</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>609.0</v>
+        <v>594.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20180524</t>
+          <t>20180402</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>723.0</v>
+        <v>791.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20180709</t>
+          <t>20180423</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>477.0</v>
+        <v>609.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20180725</t>
+          <t>20180524</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>535.0</v>
+        <v>723.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20180903</t>
+          <t>20180709</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>415.0</v>
+        <v>477.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20180926</t>
+          <t>20180713</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>467.0</v>
+        <v>528.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20181019</t>
+          <t>20180723</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>323.0</v>
+        <v>481.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20181204</t>
+          <t>20180725</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>676.0</v>
+        <v>535.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20190131</t>
+          <t>20180903</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>447.0</v>
+        <v>415.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20190325</t>
+          <t>20180926</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>847.0</v>
+        <v>467.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20190506</t>
+          <t>20181019</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>544.0</v>
+        <v>323.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20190528</t>
+          <t>20181204</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>657.0</v>
+        <v>676.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20190610</t>
+          <t>20181218</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>566.0</v>
+        <v>470.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20190621</t>
+          <t>20190124</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>635.0</v>
+        <v>604.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20190722</t>
+          <t>20190131</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>532.0</v>
+        <v>447.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20190731</t>
+          <t>20190325</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>566.0</v>
+        <v>847.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20190806</t>
+          <t>20190506</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>468.0</v>
+        <v>544.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20190910</t>
+          <t>20190528</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>583.0</v>
+        <v>657.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20200203</t>
+          <t>20190715</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>462.0</v>
+        <v>548.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20200327</t>
+          <t>20190716</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>666.0</v>
+        <v>581.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20200402</t>
+          <t>20190722</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>526.0</v>
+        <v>532.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20200416</t>
+          <t>20190731</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>625.0</v>
+        <v>566.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20200428</t>
+          <t>20190806</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>523.0</v>
+        <v>468.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>20190910</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>583.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>20200203</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>462.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>20200327</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>666.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>20200402</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>526.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>20200416</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>625.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>20200428</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>523.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
           <t>20200603</t>
         </is>
       </c>
-      <c r="B58" t="n">
+      <c r="B64" t="n">
         <v>598.0</v>
       </c>
     </row>

--- a/src/main/resources/SZ300181.xlsx
+++ b/src/main/resources/SZ300181.xlsx
@@ -64,291 +64,1471 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>202004201020</t>
+          <t>20150918</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>896.0</v>
+        <v>780.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>202004201350</t>
+          <t>20150928</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>942.0</v>
+        <v>805.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>202004221100</t>
+          <t>20151021</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1231.0</v>
+        <v>880.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>202004221420</t>
+          <t>20151103</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1214.0</v>
+        <v>960.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>202004231020</t>
+          <t>20151109</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1214.0</v>
+        <v>1010.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>202004231040</t>
+          <t>20151116</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1196.0</v>
+        <v>1024.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>202004231400</t>
+          <t>20151125</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1175.0</v>
+        <v>1254.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>202004240940</t>
+          <t>20151207</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1139.0</v>
+        <v>1189.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>202004241030</t>
+          <t>20151211</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1071.0</v>
+        <v>1055.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>202004241130</t>
+          <t>20151223</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1084.0</v>
+        <v>1283.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>202004241350</t>
+          <t>20151228</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1156.0</v>
+        <v>1229.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>202004241440</t>
+          <t>20151230</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1111.0</v>
+        <v>1203.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>202004271330</t>
+          <t>20160112</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1250.0</v>
+        <v>839.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>202004280940</t>
+          <t>20160129</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1157.0</v>
+        <v>783.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>202004281310</t>
+          <t>20160222</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1358.0</v>
+        <v>965.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>202004281430</t>
+          <t>20160229</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1285.0</v>
+        <v>745.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>202004291010</t>
+          <t>20160308</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1291.0</v>
+        <v>773.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>202004291320</t>
+          <t>20160311</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1373.0</v>
+        <v>781.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>202004291430</t>
+          <t>20160321</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1315.0</v>
+        <v>907.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>202004301040</t>
+          <t>20160329</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1421.0</v>
+        <v>837.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>202005061100</t>
+          <t>20160408</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1665.0</v>
+        <v>848.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>202005070940</t>
+          <t>20160412</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2010.0</v>
+        <v>1029.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>202005071420</t>
+          <t>20160511</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1809.0</v>
+        <v>853.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>202005081020</t>
+          <t>20160520</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1675.0</v>
+        <v>787.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>202005081130</t>
+          <t>20160526</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1720.0</v>
+        <v>787.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>202005081350</t>
+          <t>20160617</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1835.0</v>
+        <v>941.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>202005110940</t>
+          <t>20160624</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1723.0</v>
+        <v>849.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>202005111030</t>
+          <t>20160704</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1901.0</v>
+        <v>891.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>202005121130</t>
+          <t>20160712</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1676.0</v>
+        <v>912.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>20160727</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>985.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20160801</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>862.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>20160808</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>876.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>20160812</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>882.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>20160819</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>907.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20160921</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>952.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>20161012</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1054.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>20161021</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>971.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>20161031</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>986.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>20161103</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1015.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20161118</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1151.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>20161122</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1137.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>20161208</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1001.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>20170116</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>786.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20170203</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>835.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>20170208</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>910.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20170223</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>896.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>20170308</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>884.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>20170313</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>850.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>20170317</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>872.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>20170328</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>846.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>20170406</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>838.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20170412</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>812.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20170421</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>790.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>20170428</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>787.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20170511</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>643.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>20170524</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>650.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>20170602</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>651.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>20170613</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>659.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>20170623</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>663.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>20170710</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>711.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>20170714</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>695.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>20170720</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>649.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>20170724</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>612.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>20170825</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>645.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>20170907</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>787.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>20170922</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>695.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>20171011</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>756.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>20171103</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>624.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>20171117</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>678.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>20171206</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>566.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>20171220</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>675.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>20171226</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>837.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>20180109</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>804.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>20180112</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>742.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>20180125</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>696.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>20180207</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>528.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>20180228</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>575.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>20180314</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>746.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>20180326</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>594.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>20180402</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>791.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>20180423</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>609.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>20180427</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>629.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>20180511</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>710.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>20180524</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>723.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>20180529</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>713.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>20180607</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>645.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>20180612</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>616.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>20180626</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>574.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>20180709</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>477.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>20180713</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>528.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>20180723</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>481.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>20180725</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>535.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>20180801</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>505.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>20180810</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>484.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>20180814</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>484.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>20180903</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>415.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>20180907</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>430.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>20180917</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>434.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>20180926</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>467.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>20181019</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>323.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>20181109</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>383.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>20181120</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>510.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>20181204</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>676.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>20181218</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>470.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>20181225</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>470.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>20190111</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>508.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>20190124</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>604.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>20190131</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>447.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>20190215</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>503.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>20190301</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>610.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>20190314</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>660.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>20190325</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>847.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>20190411</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>719.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>20190419</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>713.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>20190506</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>544.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>20190515</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>601.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>20190520</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>548.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>20190524</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>548.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>20190528</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>657.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>20190603</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>645.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>20190610</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>566.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>20190621</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>635.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>20190716</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>581.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>20190722</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>532.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>20190731</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>566.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>20190806</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>468.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>20190830</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>518.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>20190910</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>583.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>20190916</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>572.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>20190920</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>562.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>20191021</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>478.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>20191025</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>504.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>20191105</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>538.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>20191120</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>520.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>20191203</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>468.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>20200108</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>501.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>20200117</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>501.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>20200203</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>462.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>20200327</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>666.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>20200402</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>526.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>20200408</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>550.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>20200416</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>625.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>20200423</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>603.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>20200428</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>523.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>20200512</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>536.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>20200521</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>555.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>20200617</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>620.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/SZ300181.xlsx
+++ b/src/main/resources/SZ300181.xlsx
@@ -64,581 +64,411 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>20150918</t>
+          <t>20170904</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>780.0</v>
+        <v>3433.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20151125</t>
+          <t>20170929</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1254.0</v>
+        <v>2308.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20151211</t>
+          <t>20171013</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1055.0</v>
+        <v>2934.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20151223</t>
+          <t>20171206</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1283.0</v>
+        <v>1728.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20160129</t>
+          <t>20171228</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>783.0</v>
+        <v>1993.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20160222</t>
+          <t>20180108</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>965.0</v>
+        <v>1844.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20160229</t>
+          <t>20180116</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>745.0</v>
+        <v>2148.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20160321</t>
+          <t>20180207</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>907.0</v>
+        <v>1376.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20160329</t>
+          <t>20180312</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>837.0</v>
+        <v>1718.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20160412</t>
+          <t>20180326</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1029.0</v>
+        <v>1431.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20160520</t>
+          <t>20180413</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>787.0</v>
+        <v>2022.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20160617</t>
+          <t>20180423</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.0</v>
+        <v>1671.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20160624</t>
+          <t>20180528</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.0</v>
+        <v>2289.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20160727</t>
+          <t>20180706</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>985.0</v>
+        <v>1482.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20160801</t>
+          <t>20180713</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>862.0</v>
+        <v>1737.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20161012</t>
+          <t>20180824</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1054.0</v>
+        <v>1383.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20161021</t>
+          <t>20180912</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>971.0</v>
+        <v>1520.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20161118</t>
+          <t>20181012</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1151.0</v>
+        <v>1124.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20170116</t>
+          <t>20181113</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>786.0</v>
+        <v>1485.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20170208</t>
+          <t>20181126</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>910.0</v>
+        <v>1323.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20170511</t>
+          <t>20181211</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>643.0</v>
+        <v>1941.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20170710</t>
+          <t>20181228</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.0</v>
+        <v>1622.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20170724</t>
+          <t>20190109</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>612.0</v>
+        <v>2041.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20170907</t>
+          <t>20190130</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>787.0</v>
+        <v>1642.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20170922</t>
+          <t>20190225</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.0</v>
+        <v>1968.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20171011</t>
+          <t>20190311</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>756.0</v>
+        <v>1692.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20171103</t>
+          <t>20190319</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>624.0</v>
+        <v>2216.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20171117</t>
+          <t>20190606</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>678.0</v>
+        <v>1430.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20171206</t>
+          <t>20190724</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>566.0</v>
+        <v>1808.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20171226</t>
+          <t>20190812</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>837.0</v>
+        <v>1383.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20180207</t>
+          <t>20191121</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>528.0</v>
+        <v>3392.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20180314</t>
+          <t>20191230</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>746.0</v>
+        <v>1680.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20180326</t>
+          <t>20200121</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>594.0</v>
+        <v>1865.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20180402</t>
+          <t>20200204</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>791.0</v>
+        <v>1355.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20180423</t>
+          <t>20200225</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>609.0</v>
+        <v>1978.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20180524</t>
+          <t>20200228</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>723.0</v>
+        <v>1651.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20180709</t>
+          <t>20200306</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>477.0</v>
+        <v>1845.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20180725</t>
+          <t>20200319</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>535.0</v>
+        <v>1451.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20180903</t>
+          <t>20200521</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>415.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20180926</t>
+          <t>20200529</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>467.0</v>
+        <v>2015.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20181019</t>
+          <t>20200624</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>323.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>20181204</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>676.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>20190131</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>447.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>20190325</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>847.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>20190506</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>544.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>20190528</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>657.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>20190610</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>566.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>20190621</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>635.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>20190722</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>532.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>20190731</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>566.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>20190806</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>468.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>20190910</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>583.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>20200203</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>462.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>20200327</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>666.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>20200402</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>526.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>20200416</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>625.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>20200428</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>523.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>20200617</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>620.0</v>
+        <v>3230.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/SZ300181.xlsx
+++ b/src/main/resources/SZ300181.xlsx
@@ -64,411 +64,591 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>20170904</t>
+          <t>20150918</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>3433.0</v>
+        <v>780.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20170929</t>
+          <t>20151125</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2308.0</v>
+        <v>1254.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20171013</t>
+          <t>20151211</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2934.0</v>
+        <v>1055.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20171206</t>
+          <t>20151223</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1728.0</v>
+        <v>1283.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20171228</t>
+          <t>20160129</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1993.0</v>
+        <v>783.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20180108</t>
+          <t>20160222</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1844.0</v>
+        <v>965.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20180116</t>
+          <t>20160229</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2148.0</v>
+        <v>745.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20180207</t>
+          <t>20160321</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.0</v>
+        <v>907.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20180312</t>
+          <t>20160329</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1718.0</v>
+        <v>837.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20180326</t>
+          <t>20160412</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1431.0</v>
+        <v>1029.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20180413</t>
+          <t>20160520</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2022.0</v>
+        <v>787.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20180423</t>
+          <t>20160617</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1671.0</v>
+        <v>941.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20180528</t>
+          <t>20160624</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2289.0</v>
+        <v>849.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20180706</t>
+          <t>20160727</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1482.0</v>
+        <v>985.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20180713</t>
+          <t>20160801</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1737.0</v>
+        <v>862.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20180824</t>
+          <t>20161012</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1383.0</v>
+        <v>1054.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20180912</t>
+          <t>20161021</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1520.0</v>
+        <v>971.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20181012</t>
+          <t>20161118</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1124.0</v>
+        <v>1151.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20181113</t>
+          <t>20170116</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1485.0</v>
+        <v>786.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20181126</t>
+          <t>20170208</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1323.0</v>
+        <v>910.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20181211</t>
+          <t>20170511</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1941.0</v>
+        <v>643.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20181228</t>
+          <t>20170710</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1622.0</v>
+        <v>711.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20190109</t>
+          <t>20170724</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2041.0</v>
+        <v>612.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20190130</t>
+          <t>20170907</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1642.0</v>
+        <v>787.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20190225</t>
+          <t>20170922</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1968.0</v>
+        <v>695.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20190311</t>
+          <t>20171011</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1692.0</v>
+        <v>756.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20190319</t>
+          <t>20171103</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2216.0</v>
+        <v>624.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20190606</t>
+          <t>20171117</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1430.0</v>
+        <v>678.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20190724</t>
+          <t>20171206</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1808.0</v>
+        <v>566.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20190812</t>
+          <t>20171226</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1383.0</v>
+        <v>837.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20191121</t>
+          <t>20180207</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3392.0</v>
+        <v>528.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20191230</t>
+          <t>20180314</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1680.0</v>
+        <v>746.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20200121</t>
+          <t>20180326</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1865.0</v>
+        <v>594.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20200204</t>
+          <t>20180402</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1355.0</v>
+        <v>791.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20200225</t>
+          <t>20180423</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1978.0</v>
+        <v>609.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20200228</t>
+          <t>20180524</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1651.0</v>
+        <v>723.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20200306</t>
+          <t>20180709</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1845.0</v>
+        <v>477.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20200319</t>
+          <t>20180725</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1451.0</v>
+        <v>535.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20200521</t>
+          <t>20180903</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2700.0</v>
+        <v>415.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20200529</t>
+          <t>20180926</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2015.0</v>
+        <v>467.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>20181019</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>323.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>20181204</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>676.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>20190131</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>447.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20190325</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>847.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>20190506</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>544.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20190528</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>657.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>20190610</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>566.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>20190621</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>635.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>20190722</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>532.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>20190731</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>566.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>20190806</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>468.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20190910</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>583.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20200203</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>462.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>20200327</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>666.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20200402</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>526.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>20200416</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>625.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>20200428</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>523.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>20200617</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>620.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>20200624</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>3230.0</v>
+      <c r="B59" t="n">
+        <v>570.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/SZ300181.xlsx
+++ b/src/main/resources/SZ300181.xlsx
@@ -64,590 +64,620 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>20150918</t>
+          <t>20150914</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>780.0</v>
+        <v>821.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20151125</t>
+          <t>20150918</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1254.0</v>
+        <v>780.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20151211</t>
+          <t>20151125</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1055.0</v>
+        <v>1254.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20151223</t>
+          <t>20151211</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1283.0</v>
+        <v>1055.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20160129</t>
+          <t>20151223</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>783.0</v>
+        <v>1283.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20160222</t>
+          <t>20160112</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>965.0</v>
+        <v>839.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20160229</t>
+          <t>20160222</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>745.0</v>
+        <v>965.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20160321</t>
+          <t>20160229</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>907.0</v>
+        <v>745.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20160329</t>
+          <t>20160321</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>837.0</v>
+        <v>907.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20160412</t>
+          <t>20160329</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1029.0</v>
+        <v>837.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20160520</t>
+          <t>20160412</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>787.0</v>
+        <v>1029.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20160617</t>
+          <t>20160520</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.0</v>
+        <v>787.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20160624</t>
+          <t>20160617</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.0</v>
+        <v>941.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20160727</t>
+          <t>20160624</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>985.0</v>
+        <v>849.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20160801</t>
+          <t>20160727</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>862.0</v>
+        <v>985.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20161012</t>
+          <t>20160801</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1054.0</v>
+        <v>862.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20161021</t>
+          <t>20161012</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>971.0</v>
+        <v>1054.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20161118</t>
+          <t>20161021</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1151.0</v>
+        <v>971.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20170116</t>
+          <t>20161118</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>786.0</v>
+        <v>1151.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20170208</t>
+          <t>20170116</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>910.0</v>
+        <v>786.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20170511</t>
+          <t>20170208</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>643.0</v>
+        <v>910.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20170710</t>
+          <t>20170511</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.0</v>
+        <v>643.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20170724</t>
+          <t>20170710</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>612.0</v>
+        <v>711.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20170907</t>
+          <t>20170724</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>787.0</v>
+        <v>612.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20170922</t>
+          <t>20170907</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.0</v>
+        <v>787.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20171011</t>
+          <t>20170922</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>756.0</v>
+        <v>695.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20171103</t>
+          <t>20171011</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>624.0</v>
+        <v>756.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20171117</t>
+          <t>20171103</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>678.0</v>
+        <v>624.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20171206</t>
+          <t>20171117</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>566.0</v>
+        <v>678.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20171226</t>
+          <t>20171206</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>837.0</v>
+        <v>566.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20180207</t>
+          <t>20171226</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>528.0</v>
+        <v>837.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20180314</t>
+          <t>20180207</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>746.0</v>
+        <v>528.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20180326</t>
+          <t>20180314</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>594.0</v>
+        <v>746.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20180402</t>
+          <t>20180326</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>791.0</v>
+        <v>594.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20180423</t>
+          <t>20180402</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>609.0</v>
+        <v>791.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20180524</t>
+          <t>20180423</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>723.0</v>
+        <v>609.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20180709</t>
+          <t>20180511</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>477.0</v>
+        <v>710.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20180725</t>
+          <t>20180709</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>535.0</v>
+        <v>477.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20180903</t>
+          <t>20180713</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>415.0</v>
+        <v>528.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20180926</t>
+          <t>20180903</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>467.0</v>
+        <v>415.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20181019</t>
+          <t>20180926</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>323.0</v>
+        <v>467.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20181204</t>
+          <t>20181019</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>676.0</v>
+        <v>323.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20190131</t>
+          <t>20181204</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>447.0</v>
+        <v>676.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20190325</t>
+          <t>20181218</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>847.0</v>
+        <v>470.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20190506</t>
+          <t>20190325</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>544.0</v>
+        <v>847.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20190528</t>
+          <t>20190506</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>657.0</v>
+        <v>544.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20190610</t>
+          <t>20190528</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>566.0</v>
+        <v>657.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20190621</t>
+          <t>20190610</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>635.0</v>
+        <v>566.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20190722</t>
+          <t>20190621</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>532.0</v>
+        <v>635.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20190731</t>
+          <t>20190722</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>566.0</v>
+        <v>532.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20190806</t>
+          <t>20190731</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>468.0</v>
+        <v>566.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20190910</t>
+          <t>20190806</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>583.0</v>
+        <v>468.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20200203</t>
+          <t>20190910</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>462.0</v>
+        <v>583.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20200327</t>
+          <t>20191021</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>666.0</v>
+        <v>478.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20200402</t>
+          <t>20191105</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>526.0</v>
+        <v>538.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20200416</t>
+          <t>20191202</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>625.0</v>
+        <v>468.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20200428</t>
+          <t>20200327</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>523.0</v>
+        <v>666.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20200617</t>
+          <t>20200402</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>620.0</v>
+        <v>526.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>20200416</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>625.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>20200428</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>523.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>20200617</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>620.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
           <t>20200624</t>
         </is>
       </c>
-      <c r="B59" t="n">
+      <c r="B62" t="n">
         <v>570.0</v>
       </c>
     </row>

--- a/src/main/resources/SZ300181.xlsx
+++ b/src/main/resources/SZ300181.xlsx
@@ -64,621 +64,1131 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>20150914</t>
+          <t>20110222</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>821.0</v>
+        <v>354.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20150918</t>
+          <t>20110225</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>780.0</v>
+        <v>335.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20151125</t>
+          <t>20110314</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1254.0</v>
+        <v>362.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20151211</t>
+          <t>20110429</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1055.0</v>
+        <v>279.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20151223</t>
+          <t>20110509</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1283.0</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20160112</t>
+          <t>20110622</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>839.0</v>
+        <v>207.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20160222</t>
+          <t>20110803</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>965.0</v>
+        <v>308.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20160229</t>
+          <t>20110809</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>745.0</v>
+        <v>244.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20160321</t>
+          <t>20110826</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>907.0</v>
+        <v>331.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20160329</t>
+          <t>20110906</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>837.0</v>
+        <v>277.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20160412</t>
+          <t>20110922</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1029.0</v>
+        <v>323.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20160520</t>
+          <t>20111024</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>787.0</v>
+        <v>238.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20160617</t>
+          <t>20111115</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>941.0</v>
+        <v>304.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20160624</t>
+          <t>20111121</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>849.0</v>
+        <v>275.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20160727</t>
+          <t>20111129</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>985.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20160801</t>
+          <t>20111215</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>862.0</v>
+        <v>247.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20161012</t>
+          <t>20120104</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1054.0</v>
+        <v>283.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20161021</t>
+          <t>20120119</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>971.0</v>
+        <v>217.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20161118</t>
+          <t>20120214</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1151.0</v>
+        <v>249.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20170116</t>
+          <t>20120221</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>786.0</v>
+        <v>235.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20170208</t>
+          <t>20120319</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>910.0</v>
+        <v>292.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20170511</t>
+          <t>20120330</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>643.0</v>
+        <v>239.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20170710</t>
+          <t>20120514</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>711.0</v>
+        <v>298.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20170724</t>
+          <t>20120528</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>612.0</v>
+        <v>268.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20170907</t>
+          <t>20120709</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>787.0</v>
+        <v>561.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20170922</t>
+          <t>20120830</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>695.0</v>
+        <v>313.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20171011</t>
+          <t>20120913</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>756.0</v>
+        <v>382.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20171103</t>
+          <t>20120926</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>624.0</v>
+        <v>305.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20171117</t>
+          <t>20121023</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>678.0</v>
+        <v>358.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20171206</t>
+          <t>20121204</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>566.0</v>
+        <v>218.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20171226</t>
+          <t>20130123</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>837.0</v>
+        <v>349.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20180207</t>
+          <t>20130205</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>528.0</v>
+        <v>306.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20180314</t>
+          <t>20130306</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>746.0</v>
+        <v>397.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20180326</t>
+          <t>20130313</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>594.0</v>
+        <v>328.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20180402</t>
+          <t>20130322</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>791.0</v>
+        <v>373.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20180423</t>
+          <t>20130416</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>609.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20180511</t>
+          <t>20130527</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>710.0</v>
+        <v>394.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20180709</t>
+          <t>20130625</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>477.0</v>
+        <v>278.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20180713</t>
+          <t>20130807</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>528.0</v>
+        <v>450.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20180903</t>
+          <t>20130830</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>415.0</v>
+        <v>388.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20180926</t>
+          <t>20131028</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>467.0</v>
+        <v>526.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20181019</t>
+          <t>20131108</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>323.0</v>
+        <v>410.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20181204</t>
+          <t>20140214</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>676.0</v>
+        <v>951.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20181218</t>
+          <t>20140331</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>470.0</v>
+        <v>577.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20190325</t>
+          <t>20140418</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>847.0</v>
+        <v>713.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20190506</t>
+          <t>20140429</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>544.0</v>
+        <v>571.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20190528</t>
+          <t>20140929</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>657.0</v>
+        <v>964.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20190610</t>
+          <t>20141113</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>566.0</v>
+        <v>773.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20190621</t>
+          <t>20141128</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>635.0</v>
+        <v>934.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20190722</t>
+          <t>20141229</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>532.0</v>
+        <v>698.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20190731</t>
+          <t>20150427</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>566.0</v>
+        <v>1175.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20190806</t>
+          <t>20150507</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>468.0</v>
+        <v>1038.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20190910</t>
+          <t>20150612</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>583.0</v>
+        <v>1797.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20191021</t>
+          <t>20150708</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>478.0</v>
+        <v>727.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20191105</t>
+          <t>20151125</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>538.0</v>
+        <v>1254.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20191202</t>
+          <t>20151211</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>468.0</v>
+        <v>1055.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20200327</t>
+          <t>20151223</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>666.0</v>
+        <v>1283.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20200402</t>
+          <t>20160129</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>526.0</v>
+        <v>783.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20200416</t>
+          <t>20160222</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>625.0</v>
+        <v>965.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20200428</t>
+          <t>20160229</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>523.0</v>
+        <v>745.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20200617</t>
+          <t>20160321</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>620.0</v>
+        <v>907.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20200624</t>
+          <t>20160329</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>570.0</v>
+        <v>837.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>20160412</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1029.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>20160520</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>787.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>20160617</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>941.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>20160624</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>849.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>20160727</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>985.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>20160801</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>862.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>20161012</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1054.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>20161021</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>971.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>20161118</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1151.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>20170116</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>786.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>20170208</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>910.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>20170511</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>643.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>20170710</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>711.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>20170724</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>612.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>20170907</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>787.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>20170922</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>695.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>20171011</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>756.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>20171103</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>624.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>20171117</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>678.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>20171206</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>566.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>20171226</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>837.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>20180207</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>528.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>20180314</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>746.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>20180326</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>594.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>20180402</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>791.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>20180423</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>609.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>20180524</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>723.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>20180709</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>477.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>20180725</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>535.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>20180903</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>415.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>20180926</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>467.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>20181019</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>323.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>20181204</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>676.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>20190131</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>447.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>20190325</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>847.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>20190506</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>544.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>20190528</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>657.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>20190610</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>566.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>20190621</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>635.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>20190722</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>532.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>20190731</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>566.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>20190806</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>468.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>20190910</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>583.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>20200203</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>462.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>20200327</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>666.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>20200402</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>526.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>20200416</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>625.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>20200428</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>523.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>20200617</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>620.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>20200629</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>566.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>20200804</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>765.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/SZ300181.xlsx
+++ b/src/main/resources/SZ300181.xlsx
@@ -68,7 +68,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>354.0</v>
+        <v>408.0</v>
       </c>
     </row>
     <row r="2">

--- a/src/main/resources/SZ300181.xlsx
+++ b/src/main/resources/SZ300181.xlsx
@@ -1191,6 +1191,56 @@
         <v>765.0</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>20200814</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>626.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>20200915</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>894.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>20200929</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>701.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>20201019</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>847.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>675.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/SZ300181.xlsx
+++ b/src/main/resources/SZ300181.xlsx
@@ -1234,11 +1234,11 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20201113</t>
+          <t>20201111</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>675.0</v>
+        <v>687.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/SZ300181.xlsx
+++ b/src/main/resources/SZ300181.xlsx
@@ -1234,11 +1234,11 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20201111</t>
+          <t>20201113</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>687.0</v>
+        <v>675.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/SZ300181.xlsx
+++ b/src/main/resources/SZ300181.xlsx
@@ -1234,11 +1234,41 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20201113</t>
+          <t>20201211</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>675.0</v>
+        <v>605.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>653.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>20210108</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>539.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>20210329</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>736.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/SZ300181.xlsx
+++ b/src/main/resources/SZ300181.xlsx
@@ -1271,6 +1271,26 @@
         <v>736.0</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>20210414</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>658.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>20210428</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>750.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
